--- a/Bills_Debt/bills_debt_data.xlsx
+++ b/Bills_Debt/bills_debt_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantinos\Desktop\CS projects\Hackathons\Bankrupt_Smart_Code\Bills_Debt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DFD15C-CF55-4E5B-91C3-684E00C5BE56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B5F35-33CB-4AB4-B02D-9C2B11C03EDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{90D42DE6-4643-41A0-A648-F46145912D0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{90D42DE6-4643-41A0-A648-F46145912D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>700</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>700</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>700</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2000</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>700</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>700</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>2000</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>700</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>2000</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>700</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>2000</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>2000</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>700</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>2000</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>700</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
